--- a/script/result_llm_tranform/autoware_docs/autoware_path_optimizer/result.xlsx
+++ b/script/result_llm_tranform/autoware_docs/autoware_path_optimizer/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15540"/>
+    <workbookView windowWidth="26860" windowHeight="15060"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="128">
   <si>
     <t>index</t>
   </si>
@@ -87,18 +87,18 @@
  ; A stop point has been inserted; In the next state, the system will still not be outside the drivable area</t>
   </si>
   <si>
+    <t>{'sentence': '2.insert stop point before the planned footprint will be outside the drivable area', 'formula': 'G(¬D → S)', 'explanation': 'Here, D represents the drivable area, and S represents the stop point. The formula ensures that if the planned footprint is outside the drivable area, a stop point will be inserted.'}</t>
+  </si>
+  <si>
+    <t>{'sentence': '2.insert stop point before the planned footprint will be outside the drivable area', 'formula': 'G((¬O ∧ X¬O) → S)', 'explanation': 'Similar to the first sentence, this formula ensures that globally, if the next planned footprint will be outside the drivable area (X¬O), then a stop point (S) is inserted before reaching this condition.'}</t>
+  </si>
+  <si>
+    <t>{'sentence': '2.insert stop point before the planned footprint will be outside the drivable area', 'formula': 'G(¬O → X(S))', 'explanation': "O represents 'planned footprint is outside drivable area', and S represents 'stop point inserted'. This formula ensures that whenever the footprint is not outside (¬O), in the next state (X) a stop point is inserted (S), effectively preventing the footprint from leaving the drivable area."}</t>
+  </si>
+  <si>
     <t>insert stop point before the planned footprint will be outside the drivable area</t>
   </si>
   <si>
-    <t>{'sentence': '2.insert stop point before the planned footprint will be outside the drivable area', 'formula': 'G(¬D → S)', 'explanation': 'Here, D represents the drivable area, and S represents the stop point. The formula ensures that if the planned footprint is outside the drivable area, a stop point will be inserted.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': '2.insert stop point before the planned footprint will be outside the drivable area', 'formula': 'G((¬O ∧ X¬O) → S)', 'explanation': 'Similar to the first sentence, this formula ensures that globally, if the next planned footprint will be outside the drivable area (X¬O), then a stop point (S) is inserted before reaching this condition.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': '2.insert stop point before the planned footprint will be outside the drivable area', 'formula': 'G(¬O → X(S))', 'explanation': "O represents 'planned footprint is outside drivable area', and S represents 'stop point inserted'. This formula ensures that whenever the footprint is not outside (¬O), in the next state (X) a stop point is inserted (S), effectively preventing the footprint from leaving the drivable area."}</t>
-  </si>
-  <si>
     <t>state transition pre-requirement</t>
   </si>
   <si>
@@ -225,7 +225,8 @@
     <t>C represents 'check performed', O represents 'outside drivable area', I represents 'inside trajectory output', P represents 'previous trajectory used'. The formula states that globally, a check is performed and if outside the drivable area, either an inside trajectory or previous trajectory is output.</t>
   </si>
   <si>
-    <t>{'sentence': 'Generated trajectory is checked if it is inside the drivable area or not, and if outside drivable area, output a trajectory inside drivable area with the behavior path or the previously generated trajectory.', 'formula': 'G(GT → (D → GT) ∧ (¬D → (B ∨ PT)))', 'explanation': 'Here, GT represents the generated trajectory, D represents the drivable area, B represents the behavior path, and PT represents the previously generated trajectory. The formula ensures that the generated trajectory is checked for drivability and corrected if necessary.'}</t>
+    <t>{'sentence': 'Generated trajectory is checked if it is inside the drivable area or not, and if outside drivable area, output a trajectory inside drivable area with the behavior path or the previously generated trajectory.', 'formula': 'G(GT → (D → GT) ∧ (¬D → (B ∨ PT)))', 'explanation': 'Here, GT represents the generated trajectory, D represents the drivable area, B represents the behavior path, and PT represents the previously generated trajectory. The formula ensures that the generated trajectory is checked for drivability and corrected if necessary.'}
+{'sentence': 'Therefore, we have to make sure that the optimized trajectory is inside the drivable area or not after optimization.', 'formula': 'G(O → (D ∨ ¬D))', 'explanation': 'Here, O represents the optimized trajectory, and D represents the drivable area. The formula ensures that the optimized trajectory is either inside or outside the drivable area after optimization.'}</t>
   </si>
   <si>
     <t>{'sentence': 'Generated trajectory is checked if it is inside the drivable area or not, and if outside drivable area, output a trajectory inside drivable area with the behavior path or the previously generated trajectory.', 'formula': 'G((¬I → (B ∨ P)))', 'explanation': 'I represents being inside the drivable area. The formula ensures that globally, if a trajectory is not inside (¬I), then output a trajectory inside using either the behavior path (B) or the previously generated trajectory (P).'}</t>
@@ -243,6 +244,15 @@
     <t>"I represents 'inside drivable area', R represents 'remained trajectory inside', C represents 'concatenation output'. The formula states that globally, if the optimized trajectory is inside and regardless of the remained trajectory's position, concatenation is output."</t>
   </si>
   <si>
+    <t>{'sentence': '1.If optimized trajectory is inside the drivable area, and the remained trajectory is inside/outside the drivable area, the output trajectory will be just concatenation of those two trajectories.', 'formula': 'G(O ∧ D ∧ (RT ∧ D ∨ RT ∧ ¬D) → (O ∧ RT))', 'explanation': 'Here, O represents the optimized trajectory, D represents the drivable area, and RT represents the remained trajectory. The formula ensures that if the optimized trajectory is inside the drivable area, the output trajectory is the concatenation of the optimized and remained trajectories.'}</t>
+  </si>
+  <si>
+    <t>{'sentence': '1.If optimized trajectory is inside the drivable area, and the remained trajectory is inside/outside the drivable area, the output trajectory will be just concatenation of those two trajectories.', 'formula': '((I ∧ (R ∨ ¬R)) → C)', 'explanation': 'I represents the optimized trajectory inside the area, R the remaining trajectory condition. The formula states that if these conditions hold, the output will be a concatenation (C).'}</t>
+  </si>
+  <si>
+    <t>{'sentence': '1.If optimized trajectory is inside the drivable area, and the remained trajectory is inside/outside the drivable area, the output trajectory will be just concatenation of those two trajectories.', 'formula': 'G((O ∧ D) → X(C))', 'explanation': 'O represents the optimized trajectory, D represents being inside the drivable area, and C represents the concatenation of trajectories. This formula indicates that globally, if the optimized trajectory is inside the drivable area, in the next state, the trajectories will be concatenated.'}</t>
+  </si>
+  <si>
     <t>the output trajectory will be just concatenation of those two trajectories.</t>
   </si>
   <si>
@@ -255,6 +265,15 @@
     <t>O represents 'outside drivable area', M represents 'memorized previous trajectory', P represents 'previous trajectory used', Z represents 'zero velocity inserted'. The formula states that globally, if outside and memorized, use previous trajectory and eventually insert zero velocity.</t>
   </si>
   <si>
+    <t>{'sentence': '2.If optimized trajectory is outside the drivable area, and the remained trajectory is inside/outside the drivable area, and if the previously generated trajectory is memorized, the output trajectory will be the previously generated trajectory, where zero velocity is inserted to the point firstly going outside the drivable area; and if the previously generated trajectory is not memorized, the output trajectory will be a part of trajectory just transformed from the behavior path, where zero velocity is inserted to the point firstly going outside the drivable area.', 'formula': 'G(O ∧ ¬D ∧ (RT ∧ D ∨ RT ∧ ¬D) ∧ (PT → (PT ∧ V0)) ∧ (¬PT → (B ∧ V0)))', 'explanation': 'Here, O represents the optimized trajectory, D represents the drivable area, RT represents the remained trajectory, PT represents the previously generated trajectory, and V0 represents the insertion of zero velocity. The formula ensures that if the optimized trajectory is outside the drivable area, the output trajectory is either the previously generated trajectory or a part of the behavior path with zero velocity inserted.'}</t>
+  </si>
+  <si>
+    <t>{'sentence': '2.If optimized trajectory is outside the drivable area, and the remained trajectory is inside/outside the drivable area, and if the previously generated trajectory is memorized, the output trajectory will be the previously generated trajectory, where zero velocity is inserted to the point firstly going outside the drivable area; and if the previously generated trajectory is not memorized, the output trajectory will be a part of trajectory just transformed from the behavior path, where zero velocity is inserted to the point firstly going outside the drivable area.', 'formula': '((¬I ∧ (R ∨ ¬R) ∧ M) → P) ∧ ((¬I ∧ (R ∨ ¬R) ∧ ¬M) → B)', 'explanation': '¬I indicates the optimized trajectory is outside. M represents memorization of the trajectory. P is the previously generated trajectory, and B is the transformed behavior path. The formula captures both possible outcomes based on memorization.'}</t>
+  </si>
+  <si>
+    <t>{'sentence': '2.If optimized trajectory is outside the drivable area, and the remained trajectory is inside/outside the drivable area, and if the previously generated trajectory is memorized, the output trajectory will be the previously generated trajectory, where zero velocity is inserted to the point firstly going outside the drivable area; and if the previously generated trajectory is not memorized, the output trajectory will be a part of trajectory just transformed from the behavior path, where zero velocity is inserted to the point firstly going outside the drivable area.', 'formula': 'G((O ∧ ¬D) → ((M → P) ∧ (¬M → B)) ∧ F(Z))', 'explanation': 'O represents the optimized trajectory, D represents being inside the drivable area, M represents a memorized previous trajectory, P represents using the previous trajectory, B represents using the behavior path, and Z represents inserting zero velocity. This complex formula captures the different cases based on whether a previous trajectory is memorized or not, and ensures that zero velocity is eventually inserted.'}</t>
+  </si>
+  <si>
     <t>and if the previously generated trajectory **is memorized**,</t>
   </si>
   <si>
@@ -273,6 +292,12 @@
     <t>the output trajectory will be a part of trajectory just transformed from the behavior path, where zero velocity is inserted to the point firstly going outside the drivable area.</t>
   </si>
   <si>
+    <t>{'sentence': 'The output trajectory is memorized as a previously generated trajectory for the next cycle.', 'formula': 'G(OT → PT)', 'explanation': 'Here, OT represents the output trajectory, and PT represents the previously generated trajectory. The formula ensures that the output trajectory is memorized for the next cycle.'}</t>
+  </si>
+  <si>
+    <t>{'sentence': 'The output trajectory is memorized as a previously generated trajectory for the next cycle.', 'formula': 'G(T → X(M))', 'explanation': 'T represents the output trajectory, and M represents memorizing it. This formula states that globally, if an output trajectory is generated, in the next state (cycle) it will be memorized.'}</t>
+  </si>
+  <si>
     <t>constraints</t>
   </si>
   <si>
@@ -330,18 +355,12 @@
     <t>{'sentence': 'This module makes the trajectory kinematically-feasible and collision-free.', 'formula': 'G(K ∧ C)', 'explanation': 'Here, K represents the trajectory being kinematically-feasible, and C represents the trajectory being collision-free. The formula ensures that both conditions are always met.'}</t>
   </si>
   <si>
-    <t>{'sentence': '1.If optimized trajectory is inside the drivable area, and the remained trajectory is inside/outside the drivable area, the output trajectory will be just concatenation of those two trajectories.', 'formula': '((I ∧ (R ∨ ¬R)) → C)', 'explanation': 'I represents the optimized trajectory inside the area, R the remaining trajectory condition. The formula states that if these conditions hold, the output will be a concatenation (C).'}</t>
-  </si>
-  <si>
     <t>{'sentence': 'This optimization considers vehicle kinematics and collision checking with road boundary and obstacles.', 'formula': 'G(O → (K ∧ C))', 'explanation': "O represents 'optimization is performed', K is 'kinematics are considered', and C is 'collision checking is performed'. This formula states that whenever optimization occurs, both kinematics and collision checking are taken into account."}</t>
   </si>
   <si>
     <t>{'sentence': 'This optimization considers vehicle kinematics and collision checking with road boundary and obstacles.', 'formula': 'G(K ∧ ¬C)', 'explanation': 'Here, K represents the consideration of vehicle kinematics, and C represents collision with road boundary or obstacles. The formula ensures that kinematics is always considered and collision is always avoided.'}</t>
   </si>
   <si>
-    <t>{'sentence': '2.If optimized trajectory is outside the drivable area, and the remained trajectory is inside/outside the drivable area, and if the previously generated trajectory is memorized, the output trajectory will be the previously generated trajectory, where zero velocity is inserted to the point firstly going outside the drivable area; and if the previously generated trajectory is not memorized, the output trajectory will be a part of trajectory just transformed from the behavior path, where zero velocity is inserted to the point firstly going outside the drivable area.', 'formula': '((¬I ∧ (R ∨ ¬R) ∧ M) → P) ∧ ((¬I ∧ (R ∨ ¬R) ∧ ¬M) → B)', 'explanation': '¬I indicates the optimized trajectory is outside. M represents memorization of the trajectory. P is the previously generated trajectory, and B is the transformed behavior path. The formula captures both possible outcomes based on memorization.'}</t>
-  </si>
-  <si>
     <t>{'sentence': 'To decrease the computation cost, the optimization is applied to the shorter trajectory (default: 50 [m]) than the whole trajectory, and concatenate the remained trajectory with the optimized one at last.', 'formula': 'G(O → (S ∧ F(R)))', 'explanation': "O is 'optimization is performed', S is 'shorter trajectory is optimized', and R is 'remaining trajectory is concatenated'. This formula captures the process of optimizing a shorter segment and later concatenating the result with the remaining trajectory."}</t>
   </si>
   <si>
@@ -366,24 +385,6 @@
     <t>{'sentence': 'Optimized trajectory is too short for velocity planning, therefore extend the trajectory by concatenating the optimized trajectory and the behavior path considering drivability.', 'formula': 'G(O ∧ D → ∃t(O ∧ B ∧ D))', 'explanation': 'Here, O represents the optimized trajectory, D represents drivability, and B represents the behavior path. The formula ensures that if the optimized trajectory is too short, it is extended by concatenating it with the behavior path while considering drivability.'}</t>
   </si>
   <si>
-    <t>{'sentence': '1.If optimized trajectory is inside the drivable area, and the remained trajectory is inside/outside the drivable area, the output trajectory will be just concatenation of those two trajectories.', 'formula': 'G((O ∧ D) → X(C))', 'explanation': 'O represents the optimized trajectory, D represents being inside the drivable area, and C represents the concatenation of trajectories. This formula indicates that globally, if the optimized trajectory is inside the drivable area, in the next state, the trajectories will be concatenated.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': '1.If optimized trajectory is inside the drivable area, and the remained trajectory is inside/outside the drivable area, the output trajectory will be just concatenation of those two trajectories.', 'formula': 'G(O ∧ D ∧ (RT ∧ D ∨ RT ∧ ¬D) → (O ∧ RT))', 'explanation': 'Here, O represents the optimized trajectory, D represents the drivable area, and RT represents the remained trajectory. The formula ensures that if the optimized trajectory is inside the drivable area, the output trajectory is the concatenation of the optimized and remained trajectories.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': '2.If optimized trajectory is outside the drivable area, and the remained trajectory is inside/outside the drivable area, and if the previously generated trajectory is memorized, the output trajectory will be the previously generated trajectory, where zero velocity is inserted to the point firstly going outside the drivable area; and if the previously generated trajectory is not memorized, the output trajectory will be a part of trajectory just transformed from the behavior path, where zero velocity is inserted to the point firstly going outside the drivable area.', 'formula': 'G((O ∧ ¬D) → ((M → P) ∧ (¬M → B)) ∧ F(Z))', 'explanation': 'O represents the optimized trajectory, D represents being inside the drivable area, M represents a memorized previous trajectory, P represents using the previous trajectory, B represents using the behavior path, and Z represents inserting zero velocity. This complex formula captures the different cases based on whether a previous trajectory is memorized or not, and ensures that zero velocity is eventually inserted.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': '2.If optimized trajectory is outside the drivable area, and the remained trajectory is inside/outside the drivable area, and if the previously generated trajectory is memorized, the output trajectory will be the previously generated trajectory, where zero velocity is inserted to the point firstly going outside the drivable area; and if the previously generated trajectory is not memorized, the output trajectory will be a part of trajectory just transformed from the behavior path, where zero velocity is inserted to the point firstly going outside the drivable area.', 'formula': 'G(O ∧ ¬D ∧ (RT ∧ D ∨ RT ∧ ¬D) ∧ (PT → (PT ∧ V0)) ∧ (¬PT → (B ∧ V0)))', 'explanation': 'Here, O represents the optimized trajectory, D represents the drivable area, RT represents the remained trajectory, PT represents the previously generated trajectory, and V0 represents the insertion of zero velocity. The formula ensures that if the optimized trajectory is outside the drivable area, the output trajectory is either the previously generated trajectory or a part of the behavior path with zero velocity inserted.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'The output trajectory is memorized as a previously generated trajectory for the next cycle.', 'formula': 'G(T → X(M))', 'explanation': 'T represents the output trajectory, and M represents memorizing it. This formula states that globally, if an output trajectory is generated, in the next state (cycle) it will be memorized.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'The output trajectory is memorized as a previously generated trajectory for the next cycle.', 'formula': 'G(OT → PT)', 'explanation': 'Here, OT represents the output trajectory, and PT represents the previously generated trajectory. The formula ensures that the output trajectory is memorized for the next cycle.'}</t>
-  </si>
-  <si>
     <t>{'sentence': 'option.enable_calculation_time_info enables showing each calculation time for functions and total calculation time on the terminal.', 'formula': 'G(C → F(S))', 'explanation': 'C represents enabling the calculation time info option, and S represents showing the calculation times. This formula states that globally, if the calculation time info option is enabled, eventually the calculation times will be shown.'}</t>
   </si>
   <si>
@@ -391,9 +392,6 @@
   </si>
   <si>
     <t>{'sentence': 'This package generates a trajectory that is kinematically-feasible to drive and collision-free based on the input path, drivable area.', 'formula': 'G(I → F(T ∧ K ∧ C))', 'explanation': 'I represents the input (path and drivable area), T represents generating a trajectory, K represents kinematic feasibility, and C represents being collision-free. This formula states that globally, given an input, eventually a trajectory will be generated that is both kinematically feasible and collision-free.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'Therefore, we have to make sure that the optimized trajectory is inside the drivable area or not after optimization.', 'formula': 'G(O → (D ∨ ¬D))', 'explanation': 'Here, O represents the optimized trajectory, and D represents the drivable area. The formula ensures that the optimized trajectory is either inside or outside the drivable area after optimization.'}</t>
   </si>
   <si>
     <t>{'sentence': 'The trajectory just in front of the ego must not be changed a lot so that the steering wheel will be stable.', 'formula': 'G(F ∧ X(¬C) ∧ X(X(¬C)) → S)', 'explanation': "Here, F represents the trajectory in front of the ego, C represents a significant change, and S represents steering wheel stability. The formula states that globally (G), if the front trajectory (F) exists and doesn't change significantly in the next two time steps (X(¬C) ∧ X(X(¬C))), then the steering wheel remains stable (S). This captures the relationship between trajectory consistency and steering stability."}</t>
@@ -430,7 +428,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,13 +439,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -915,148 +906,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1414,10 +1405,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="G38" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1425,14 +1416,14 @@
     <col min="1" max="1" width="5.57692307692308" customWidth="1"/>
     <col min="2" max="2" width="8.84615384615385" customWidth="1"/>
     <col min="3" max="3" width="4.69230769230769" customWidth="1"/>
-    <col min="4" max="4" width="20.9615384615385" customWidth="1"/>
+    <col min="4" max="4" width="27.2788461538462" customWidth="1"/>
     <col min="5" max="5" width="9.03846153846154" customWidth="1"/>
     <col min="6" max="6" width="33.6538461538462" customWidth="1"/>
     <col min="7" max="7" width="40.1923076923077" customWidth="1"/>
     <col min="8" max="8" width="10.0961538461538" customWidth="1"/>
-    <col min="9" max="9" width="26.7307692307692" customWidth="1"/>
+    <col min="9" max="9" width="34.9615384615385" customWidth="1"/>
     <col min="10" max="10" width="7.04807692307692" customWidth="1"/>
-    <col min="11" max="11" width="24.8076923076923" customWidth="1"/>
+    <col min="11" max="11" width="43.1153846153846" customWidth="1"/>
     <col min="12" max="12" width="8.48076923076923" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1496,8 +1487,8 @@
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
+      <c r="H2" s="2">
+        <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>7</v>
@@ -1512,7 +1503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="152" spans="1:12">
+    <row r="3" ht="168" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1532,25 +1523,25 @@
         <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="303" spans="1:12">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="84" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1561,7 +1552,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -1569,26 +1560,11 @@
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="269" spans="1:12">
+    <row r="5" ht="185" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1610,23 +1586,23 @@
       <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
+      <c r="H5" s="2">
+        <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>7</v>
+      <c r="J5" s="2">
+        <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" ht="353" spans="1:12">
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="185" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1654,17 +1630,17 @@
       <c r="I6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>7</v>
+      <c r="J6" s="2">
+        <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" ht="252" spans="1:12">
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="152" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1686,23 +1662,23 @@
       <c r="G7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
+      <c r="H7" s="2">
+        <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>7</v>
+      <c r="J7" s="2">
+        <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" ht="286" spans="1:12">
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="152" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1724,20 +1700,20 @@
       <c r="G8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
+      <c r="H8" s="2">
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>7</v>
+      <c r="J8" s="2">
+        <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>7</v>
+      <c r="L8" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="84" spans="1:12">
@@ -1778,7 +1754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" ht="202" spans="1:12">
+    <row r="10" ht="118" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1800,23 +1776,23 @@
       <c r="G10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
+      <c r="H10" s="2">
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>7</v>
+      <c r="J10" s="2">
+        <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" ht="286" spans="1:12">
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="168" spans="1:12">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1838,20 +1814,20 @@
       <c r="G11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
+      <c r="H11" s="2">
+        <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>7</v>
+      <c r="J11" s="2">
+        <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>7</v>
+      <c r="L11" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="387" spans="1:12">
@@ -1876,23 +1852,23 @@
       <c r="G12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>7</v>
+      <c r="H12" s="2">
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>7</v>
+      <c r="J12" s="2">
+        <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" ht="135" spans="1:12">
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="236" spans="1:12">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1912,22 +1888,22 @@
         <v>69</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>7</v>
+        <v>70</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>7</v>
+        <v>71</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>7</v>
+        <v>72</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="68" spans="1:12">
@@ -1941,7 +1917,7 @@
         <v>142</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
@@ -1961,14 +1937,11 @@
       <c r="J14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="L14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" ht="135" spans="1:12">
+    <row r="15" ht="409.5" spans="1:12">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1979,31 +1952,31 @@
         <v>144</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>7</v>
+        <v>77</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>7</v>
+        <v>78</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>7</v>
+        <v>79</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="16" ht="51" spans="1:12">
@@ -2017,7 +1990,7 @@
         <v>145</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
@@ -2055,7 +2028,7 @@
         <v>146</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
@@ -2093,13 +2066,13 @@
         <v>147</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>7</v>
@@ -2131,7 +2104,7 @@
         <v>148</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
@@ -2140,10 +2113,10 @@
         <v>7</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>7</v>
+        <v>86</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>7</v>
@@ -2152,36 +2125,36 @@
         <v>7</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" ht="269" spans="1:12">
+        <v>87</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="135" spans="1:12">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2">
         <v>214</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>7</v>
+        <v>92</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>7</v>
@@ -2190,48 +2163,48 @@
         <v>7</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" ht="336" spans="1:12">
+        <v>93</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="202" spans="1:12">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2">
         <v>216</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>7</v>
+        <v>97</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>7</v>
+        <v>98</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>7</v>
+        <v>99</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="17" spans="1:12">
@@ -2348,7 +2321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" ht="236" spans="1:12">
+    <row r="25" ht="152" spans="1:12">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -2368,25 +2341,25 @@
         <v>7</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" ht="219" spans="1:12">
+        <v>102</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="152" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -2406,25 +2379,25 @@
         <v>7</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>7</v>
+        <v>103</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>7</v>
+        <v>104</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" ht="303" spans="1:12">
+        <v>105</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="152" spans="1:12">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
@@ -2444,25 +2417,23 @@
         <v>7</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" ht="409.5" spans="1:12">
+        <v>107</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="202" spans="1:12">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -2482,25 +2453,22 @@
         <v>7</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" ht="236" spans="1:12">
+        <v>109</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="168" spans="1:12">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -2520,25 +2488,25 @@
         <v>7</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>7</v>
+        <v>110</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" ht="269" spans="1:12">
+    <row r="30" ht="168" spans="1:12">
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
@@ -2558,25 +2526,25 @@
         <v>7</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>7</v>
+        <v>113</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>7</v>
+        <v>114</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" ht="370" spans="1:12">
+        <v>115</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="219" spans="1:12">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
@@ -2596,10 +2564,10 @@
         <v>7</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>7</v>
+        <v>116</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>7</v>
@@ -2607,14 +2575,11 @@
       <c r="J31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="L31" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" ht="409.5" spans="1:12">
+    <row r="32" ht="17" spans="1:12">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -2633,9 +2598,7 @@
       <c r="F32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
         <v>7</v>
       </c>
@@ -2645,14 +2608,11 @@
       <c r="J32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="L32" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" ht="409.5" spans="1:12">
+    <row r="33" ht="17" spans="1:12">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -2671,26 +2631,11 @@
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="L33" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" ht="320" spans="1:12">
+    <row r="34" ht="185" spans="1:12">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -2708,9 +2653,6 @@
       </c>
       <c r="F34" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>7</v>
@@ -2724,11 +2666,11 @@
       <c r="K34" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" ht="353" spans="1:12">
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="185" spans="1:12">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -2750,8 +2692,8 @@
       <c r="G35" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>7</v>
+      <c r="H35" s="2">
+        <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>7</v>
@@ -2762,11 +2704,11 @@
       <c r="K35" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" ht="409.5" spans="1:12">
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="219" spans="1:12">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -2785,61 +2727,57 @@
       <c r="F36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="286" spans="1:12">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" ht="409.5" spans="1:12">
-      <c r="A37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>7</v>
+      <c r="L37" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="38" ht="135" spans="1:12">
@@ -2862,10 +2800,10 @@
         <v>7</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>7</v>
+        <v>123</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>7</v>
@@ -2900,10 +2838,10 @@
         <v>7</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>7</v>
+        <v>124</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>7</v>
@@ -2938,10 +2876,10 @@
         <v>7</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>7</v>
+        <v>125</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>7</v>
@@ -2976,10 +2914,10 @@
         <v>7</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>7</v>
+        <v>126</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>7</v>
@@ -3014,10 +2952,10 @@
         <v>7</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>7</v>
+        <v>127</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>7</v>
@@ -3030,6 +2968,34 @@
       </c>
       <c r="L42" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="8:12">
+      <c r="H43">
+        <f>COUNTIF(H1:H42,1)</f>
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <f>COUNTIF(J1:J42,1)</f>
+        <v>10</v>
+      </c>
+      <c r="L43">
+        <f>COUNTIF(L1:L42,1)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="8:12">
+      <c r="H44">
+        <f>COUNTIF(H2:H43,0)</f>
+        <v>17</v>
+      </c>
+      <c r="J44">
+        <f>COUNTIF(J2:J43,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <f>COUNTIF(L2:L43,0)</f>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/script/result_llm_tranform/autoware_docs/autoware_path_optimizer/result.xlsx
+++ b/script/result_llm_tranform/autoware_docs/autoware_path_optimizer/result.xlsx
@@ -1407,8 +1407,8 @@
   <sheetPr/>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="G38" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="84" spans="1:12">
+    <row r="4" ht="51" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="68" spans="1:12">
+    <row r="14" ht="51" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" ht="118" spans="1:12">
+    <row r="17" ht="101" spans="1:12">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
